--- a/stock/资金分配.xlsx
+++ b/stock/资金分配.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>分期\分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,11 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -459,7 +460,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -683,6 +684,33 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">

--- a/stock/资金分配.xlsx
+++ b/stock/资金分配.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>分期\分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -716,6 +716,33 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0.6</v>
+      </c>
+      <c r="D8">
+        <v>0.6</v>
+      </c>
+      <c r="E8">
+        <v>0.6</v>
+      </c>
+      <c r="F8">
+        <v>0.4</v>
+      </c>
+      <c r="G8">
+        <v>0.3</v>
+      </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>0.3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
